--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lagunov.pro/IdeaProjects/TT_OK/testtask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD0FC94-8235-AA43-A495-FCB3B7E2933B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF381FB-8A0A-8C43-9191-65A0575D578F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="24660" windowHeight="15000" xr2:uid="{19EBCBE3-7AF4-E04B-8603-428C4CD8C3E0}"/>
   </bookViews>
@@ -30,15 +30,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Fact</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -62,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,12 +407,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF4C17D-3A22-B543-A46A-B7F4E77C8BFC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>